--- a/posesiones/1381296.xlsx
+++ b/posesiones/1381296.xlsx
@@ -1715,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>17</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>12</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>16</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>13</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>22</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>23</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>18</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>7</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>6</v>
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R31">
         <v>15</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R33">
         <v>14</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R35">
         <v>24</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R37">
         <v>10</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R39">
         <v>5</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R41">
         <v>23</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>7</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R45">
         <v>23</v>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R46">
         <v>24</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R47">
         <v>21</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R49">
         <v>13</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4139,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R51">
         <v>11</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R53">
         <v>17</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R59">
         <v>2</v>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R60">
         <v>18</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R62">
         <v>24</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R64">
         <v>19</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R70">
         <v>25</v>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R73">
         <v>27</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R75">
         <v>32</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R77">
         <v>13</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R86">
         <v>15</v>
@@ -5903,10 +5903,10 @@
         <v>1</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6229,10 +6229,10 @@
         <v>1</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6282,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <v>13</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R97">
         <v>18</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R99">
         <v>19</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R105">
         <v>20</v>
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <v>24</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R108">
         <v>23</v>
@@ -6976,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R109">
         <v>21</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R110">
         <v>17</v>
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R111">
         <v>14</v>
@@ -7135,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R112">
         <v>16</v>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R114">
         <v>10</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7341,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R116">
         <v>9</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R122">
         <v>23</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R132">
         <v>13</v>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R133">
         <v>11</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R138">
         <v>2</v>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R139">
         <v>13</v>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8561,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R141">
         <v>9</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R144">
         <v>25</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R147">
         <v>11</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8996,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R150">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9099,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R152">
         <v>11</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R154">
         <v>18</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R161">
         <v>14</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9734,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R165">
         <v>16</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9837,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R167">
         <v>12</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10128,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R173">
         <v>25</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10231,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R175">
         <v>20</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10328,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10472,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R180">
         <v>15</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R183">
         <v>25</v>
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10719,7 +10719,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R185">
         <v>8</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10819,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R187">
         <v>6</v>
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R188">
         <v>9</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11016,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11116,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R193">
         <v>30</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R195">
         <v>16</v>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R196">
         <v>23</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11366,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R198">
         <v>22</v>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R206">
         <v>16</v>
@@ -11789,10 +11789,10 @@
         <v>1</v>
       </c>
       <c r="P207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q207">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11839,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12209,10 +12209,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R217">
         <v>15</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12503,7 +12503,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R222">
         <v>22</v>
@@ -12556,7 +12556,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12606,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R224">
         <v>14</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12709,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R226">
         <v>14</v>
@@ -12759,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12900,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -12950,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R231">
         <v>85</v>
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R232">
         <v>4</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13100,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13150,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R235">
         <v>24</v>
@@ -13203,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R236">
         <v>1</v>
@@ -13256,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R237">
         <v>5</v>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13406,7 +13406,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R240">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13509,7 +13509,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R242">
         <v>2</v>
@@ -13562,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13612,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R244">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13715,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R246">
         <v>15</v>
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13909,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R250">
         <v>0</v>
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14006,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R252">
         <v>24</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R256">
         <v>17</v>
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14300,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R258">
         <v>4</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R260">
         <v>20</v>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R262">
         <v>15</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14609,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R264">
         <v>20</v>
@@ -14662,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R265">
         <v>19</v>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R266">
         <v>18</v>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R267">
         <v>22</v>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R269">
         <v>14</v>
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15012,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15062,7 +15062,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R273">
         <v>0</v>
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R274">
         <v>18</v>
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15218,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R276">
         <v>3</v>
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15312,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R281">
         <v>17</v>
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15603,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R284">
         <v>0</v>
@@ -15656,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15706,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R286">
         <v>15</v>
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R292">
         <v>30</v>
@@ -16044,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R294">
         <v>5</v>
@@ -16144,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16382,7 +16382,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R302">
         <v>18</v>
@@ -16532,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16582,7 +16582,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R304">
         <v>19</v>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16685,7 +16685,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R306">
         <v>11</v>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R308">
         <v>6</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17120,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R315">
         <v>19</v>
@@ -17173,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R316">
         <v>16</v>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17276,7 +17276,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R318">
         <v>14</v>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17517,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R323">
         <v>22</v>
@@ -17567,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17614,7 +17614,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17664,7 +17664,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R326">
         <v>9</v>
@@ -17708,10 +17708,10 @@
         <v>1</v>
       </c>
       <c r="P327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q327">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17805,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17899,7 +17899,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17940,10 +17940,10 @@
         <v>1</v>
       </c>
       <c r="P332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q332">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -17993,7 +17993,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R333">
         <v>14</v>
@@ -18046,7 +18046,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R334">
         <v>6</v>
@@ -18099,7 +18099,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R335">
         <v>14</v>
@@ -18149,7 +18149,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18199,7 +18199,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R337">
         <v>18</v>
@@ -18252,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18302,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R339">
         <v>24</v>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18405,7 +18405,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R341">
         <v>18</v>
@@ -18458,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18508,7 +18508,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R343">
         <v>12</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18611,7 +18611,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R345">
         <v>19</v>
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R347">
         <v>19</v>
@@ -18764,7 +18764,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18814,7 +18814,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R349">
         <v>14</v>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18961,7 +18961,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R352">
         <v>23</v>
@@ -19011,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19158,7 +19158,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R356">
         <v>21</v>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19261,7 +19261,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R358">
         <v>16</v>
@@ -19314,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19364,7 +19364,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R360">
         <v>10</v>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19464,7 +19464,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19514,7 +19514,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R363">
         <v>25</v>
@@ -19567,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19617,7 +19617,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R365">
         <v>10</v>
@@ -19670,7 +19670,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19720,7 +19720,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R367">
         <v>22</v>
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19867,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19914,7 +19914,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19961,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20011,7 +20011,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R373">
         <v>21</v>
@@ -20064,7 +20064,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20161,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R377">
         <v>28</v>
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20314,7 +20314,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R379">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20411,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20458,7 +20458,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R382">
         <v>27</v>
@@ -20508,7 +20508,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20555,7 +20555,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R385">
         <v>15</v>
@@ -20658,7 +20658,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20708,7 +20708,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R387">
         <v>18</v>
@@ -20758,7 +20758,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20808,7 +20808,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R389">
         <v>11</v>
@@ -20858,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20955,7 +20955,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R392">
         <v>21</v>
@@ -21008,7 +21008,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R393">
         <v>13</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21152,7 +21152,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21246,7 +21246,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21296,7 +21296,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R399">
         <v>24</v>
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21396,7 +21396,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21446,7 +21446,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R402">
         <v>19</v>
@@ -21499,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21546,7 +21546,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21643,7 +21643,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R406">
         <v>14</v>
@@ -21693,7 +21693,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21740,7 +21740,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21840,7 +21840,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R410">
         <v>14</v>
@@ -21890,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21937,7 +21937,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21987,7 +21987,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R413">
         <v>5</v>
@@ -22037,7 +22037,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22084,7 +22084,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22178,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22225,7 +22225,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22272,7 +22272,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22319,7 +22319,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22366,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22416,7 +22416,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R422">
         <v>8</v>
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22513,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22560,7 +22560,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22654,7 +22654,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22704,7 +22704,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R428">
         <v>24</v>
@@ -22754,7 +22754,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22854,7 +22854,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R431">
         <v>14</v>
@@ -22907,7 +22907,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R432">
         <v>16</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23054,7 +23054,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23104,7 +23104,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R436">
         <v>8</v>
@@ -23154,7 +23154,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23195,10 +23195,10 @@
         <v>1</v>
       </c>
       <c r="P438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q438">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
